--- a/仕様書/進捗管理_200713.xlsx
+++ b/仕様書/進捗管理_200713.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sinkeisuizyaku/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{D9442FEA-3658-4E4E-87AE-E261EBA8BA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43F28FD9-F4E5-4344-BA3C-8579D1AB8462}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{D9442FEA-3658-4E4E-87AE-E261EBA8BA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C03C7076-7148-42F2-837E-667F6867DA7C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="137">
   <si>
     <t>神経衰弱　進捗管理</t>
     <rPh sb="0" eb="4">
@@ -442,10 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第一段階進行中</t>
     <rPh sb="0" eb="2">
       <t>ダイイチ</t>
@@ -1322,6 +1318,23 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先攻後攻処理</t>
+    <rPh sb="0" eb="4">
+      <t>センコウコウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトNPC処理</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1697,17 +1710,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2089,6 +2091,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2096,7 +2109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2146,7 +2159,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2160,17 +2173,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2190,19 +2203,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2212,21 +2224,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2239,52 +2251,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,116 +2326,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2701,8 +2722,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2766,10 +2787,10 @@
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="111"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2798,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>12</v>
@@ -2829,10 +2850,10 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2867,10 +2888,10 @@
       <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="103"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="17" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +2906,7 @@
         <v>44020</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" ref="J15" si="0">J41</f>
+        <f>J41</f>
         <v>100</v>
       </c>
       <c r="K15" s="12"/>
@@ -2903,14 +2924,14 @@
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="103"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="115"/>
       <c r="E16" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19" t="s">
@@ -2941,24 +2962,24 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="8">
-        <v>4</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="103"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="115"/>
       <c r="E17" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H17" s="21">
         <v>44018</v>
       </c>
       <c r="I17" s="42">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="J17" s="15">
         <f>J43</f>
@@ -2979,14 +3000,14 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="8">
-        <v>5</v>
-      </c>
-      <c r="C18" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="103"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="115"/>
       <c r="E18" s="17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19" t="s">
@@ -3017,28 +3038,28 @@
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="8">
-        <v>6</v>
-      </c>
-      <c r="C19" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="103"/>
+        <v>8</v>
+      </c>
+      <c r="C19" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="115"/>
       <c r="E19" s="17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H19" s="21">
-        <v>44018</v>
+        <v>44021</v>
       </c>
       <c r="I19" s="42">
-        <v>44018</v>
+        <v>44026</v>
       </c>
       <c r="J19" s="15">
         <f>J45</f>
-        <v>100</v>
+        <v>90.000000000000014</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="1"/>
@@ -3055,12 +3076,12 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="8">
-        <v>7</v>
-      </c>
-      <c r="C20" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="103"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="115"/>
       <c r="E20" s="17" t="s">
         <v>41</v>
       </c>
@@ -3068,15 +3089,15 @@
       <c r="G20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="21">
-        <v>44018</v>
+      <c r="H20" s="42">
+        <v>44022</v>
       </c>
       <c r="I20" s="42">
-        <v>44020</v>
+        <v>44026</v>
       </c>
       <c r="J20" s="15">
         <f>J46</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="13"/>
@@ -3093,28 +3114,28 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="8">
-        <v>8</v>
-      </c>
-      <c r="C21" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="103"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="115"/>
       <c r="E21" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H21" s="21">
         <v>44021</v>
       </c>
       <c r="I21" s="42">
-        <v>44026</v>
+        <v>44022</v>
       </c>
       <c r="J21" s="15">
         <f>J47</f>
-        <v>60.000000000000007</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="1"/>
@@ -3131,28 +3152,28 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="8">
-        <v>9</v>
-      </c>
-      <c r="C22" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="103"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="121"/>
       <c r="E22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="H22" s="42">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="I22" s="42">
         <v>44026</v>
       </c>
       <c r="J22" s="15">
         <f>J48</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3169,17 +3190,17 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="8">
-        <v>10</v>
-      </c>
-      <c r="C23" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="21">
@@ -3190,7 +3211,7 @@
       </c>
       <c r="J23" s="15">
         <f>J49</f>
-        <v>89.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="1"/>
@@ -3207,16 +3228,16 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="8">
-        <v>11</v>
-      </c>
-      <c r="C24" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="121"/>
+      <c r="E24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="25"/>
       <c r="G24" s="26" t="s">
         <v>46</v>
       </c>
@@ -3245,28 +3266,28 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="8">
-        <v>12</v>
-      </c>
-      <c r="C25" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="115"/>
+      <c r="E25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="H25" s="21">
         <v>44021</v>
       </c>
       <c r="I25" s="42">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="J25" s="15">
         <f>J51</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="28"/>
@@ -3283,28 +3304,28 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="8">
-        <v>13</v>
-      </c>
-      <c r="C26" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="115"/>
+      <c r="E26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="H26" s="42">
         <v>44025</v>
       </c>
       <c r="I26" s="42">
-        <v>44026</v>
+        <v>44028</v>
       </c>
       <c r="J26" s="15">
         <f>J52</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="28"/>
@@ -3321,28 +3342,28 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="8">
-        <v>14</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="103"/>
+        <v>16</v>
+      </c>
+      <c r="C27" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="115"/>
       <c r="E27" s="19" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="21">
-        <v>44021</v>
+      <c r="H27" s="42">
+        <v>44025</v>
       </c>
       <c r="I27" s="42">
-        <v>44026</v>
+        <v>44028</v>
       </c>
       <c r="J27" s="15">
         <f>J53</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="1"/>
@@ -3359,28 +3380,28 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="8">
-        <v>15</v>
-      </c>
-      <c r="C28" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="103"/>
+        <v>17</v>
+      </c>
+      <c r="C28" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="115"/>
       <c r="E28" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="42">
-        <v>44025</v>
+        <v>46</v>
+      </c>
+      <c r="H28" s="48">
+        <v>44021</v>
       </c>
       <c r="I28" s="42">
-        <v>44028</v>
+        <v>44022</v>
       </c>
       <c r="J28" s="15">
         <f>J54</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="1"/>
@@ -3397,28 +3418,28 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="8">
-        <v>16</v>
-      </c>
-      <c r="C29" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="103"/>
+        <v>18</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="121"/>
       <c r="E29" s="19" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="42">
-        <v>44025</v>
+        <v>29</v>
+      </c>
+      <c r="H29" s="48">
+        <v>44022</v>
       </c>
       <c r="I29" s="42">
-        <v>44028</v>
+        <v>44022</v>
       </c>
       <c r="J29" s="15">
         <f>J55</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="1"/>
@@ -3435,28 +3456,28 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="8">
-        <v>17</v>
-      </c>
-      <c r="C30" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="C30" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="48">
-        <v>44021</v>
-      </c>
-      <c r="I30" s="42">
-        <v>44022</v>
+        <v>44027</v>
+      </c>
+      <c r="I30" s="188">
+        <v>44028</v>
       </c>
       <c r="J30" s="15">
         <f>J56</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="1"/>
@@ -3473,24 +3494,24 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="8">
-        <v>18</v>
-      </c>
-      <c r="C31" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="109"/>
+        <v>20</v>
+      </c>
+      <c r="C31" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="115"/>
       <c r="E31" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="19" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H31" s="48">
-        <v>44022</v>
-      </c>
-      <c r="I31" s="42">
-        <v>44022</v>
+        <v>44025</v>
+      </c>
+      <c r="I31" s="188">
+        <v>44026</v>
       </c>
       <c r="J31" s="15">
         <f>J57</f>
@@ -3499,7 +3520,7 @@
       <c r="K31" s="10"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="148"/>
+      <c r="N31" s="102"/>
       <c r="O31" s="13"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -3511,28 +3532,28 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="8">
-        <v>19</v>
-      </c>
-      <c r="C32" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="19" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="C32" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="121"/>
+      <c r="E32" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="48">
-        <v>44027</v>
-      </c>
-      <c r="I32" s="48">
-        <v>44028</v>
+        <v>44026</v>
+      </c>
+      <c r="I32" s="188">
+        <v>44026</v>
       </c>
       <c r="J32" s="15">
-        <f t="shared" ref="J32:J33" si="1">J58</f>
-        <v>0</v>
+        <f>J58</f>
+        <v>90</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="1"/>
@@ -3542,34 +3563,34 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="S32" s="13"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
+      <c r="U32" s="102"/>
       <c r="V32" s="32"/>
     </row>
     <row r="33" spans="1:25">
       <c r="B33" s="8">
-        <v>20</v>
-      </c>
-      <c r="C33" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="103"/>
+        <v>22</v>
+      </c>
+      <c r="C33" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="115"/>
       <c r="E33" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H33" s="48">
-        <v>44027</v>
-      </c>
-      <c r="I33" s="48">
-        <v>44028</v>
+        <v>44026</v>
+      </c>
+      <c r="I33" s="188">
+        <v>44026</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="1"/>
+        <f>J59</f>
         <v>100</v>
       </c>
       <c r="K33" s="10"/>
@@ -3579,45 +3600,45 @@
       <c r="O33" s="1"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="13"/>
+      <c r="R33" s="102"/>
       <c r="S33" s="13"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="32"/>
     </row>
     <row r="34" spans="1:25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="32"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="192"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="33"/>
     </row>
     <row r="35" spans="1:25" ht="19.5" thickBot="1">
       <c r="B35" s="9"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="97"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="9"/>
       <c r="G35" s="38"/>
       <c r="H35" s="9"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="98"/>
+      <c r="J35" s="97"/>
       <c r="K35" s="44"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3632,7 +3653,7 @@
       <c r="V35" s="34"/>
     </row>
     <row r="36" spans="1:25">
-      <c r="E36" s="95"/>
+      <c r="E36" s="94"/>
     </row>
     <row r="38" spans="1:25" ht="19.5" thickBot="1">
       <c r="A38" t="s">
@@ -3644,10 +3665,10 @@
       <c r="B39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="111"/>
+      <c r="D39" s="123"/>
       <c r="E39" s="6" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3676,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>12</v>
@@ -3707,10 +3728,10 @@
       <c r="B40" s="7">
         <v>1</v>
       </c>
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="115"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="16" t="s">
         <v>28</v>
       </c>
@@ -3724,35 +3745,35 @@
       <c r="I40" s="41">
         <v>44018</v>
       </c>
-      <c r="J40" s="67">
-        <f t="shared" ref="J40:J46" si="2">SUM(K40:U40)*100</f>
+      <c r="J40" s="66">
+        <f t="shared" ref="J40:J44" si="0">SUM(K40:U40)*100</f>
         <v>100</v>
       </c>
-      <c r="K40" s="60">
+      <c r="K40" s="59">
         <v>0.8</v>
       </c>
-      <c r="L40" s="61">
+      <c r="L40" s="60">
         <v>0.2</v>
       </c>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="71"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="70"/>
     </row>
     <row r="41" spans="1:25">
       <c r="B41" s="8">
         <v>2</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="103"/>
+      <c r="D41" s="115"/>
       <c r="E41" s="17" t="s">
         <v>28</v>
       </c>
@@ -3766,39 +3787,43 @@
       <c r="I41" s="42">
         <v>44020</v>
       </c>
-      <c r="J41" s="67">
-        <f t="shared" si="2"/>
+      <c r="J41" s="66">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K41" s="62">
+      <c r="K41" s="61">
         <v>0.5</v>
       </c>
-      <c r="L41" s="63">
+      <c r="L41" s="62">
         <v>0.3</v>
       </c>
-      <c r="M41" s="63">
+      <c r="M41" s="62">
         <v>0.2</v>
       </c>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="74"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="73"/>
+      <c r="X41" s="193"/>
+      <c r="Y41" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="8">
-        <v>3</v>
-      </c>
-      <c r="C42" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="103"/>
+        <v>5</v>
+      </c>
+      <c r="C42" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="115"/>
       <c r="E42" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19" t="s">
@@ -3810,81 +3835,79 @@
       <c r="I42" s="42">
         <v>44020</v>
       </c>
-      <c r="J42" s="67">
-        <f t="shared" si="2"/>
+      <c r="J42" s="66">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K42" s="64">
+      <c r="K42" s="63">
         <v>1</v>
       </c>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="74"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="73"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="8">
-        <v>4</v>
-      </c>
-      <c r="C43" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="103"/>
+        <v>6</v>
+      </c>
+      <c r="C43" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="115"/>
       <c r="E43" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H43" s="21">
         <v>44018</v>
       </c>
       <c r="I43" s="42">
-        <v>44020</v>
-      </c>
-      <c r="J43" s="67">
-        <f t="shared" si="2"/>
+        <v>44018</v>
+      </c>
+      <c r="J43" s="66">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K43" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="M43" s="68"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="74"/>
-      <c r="X43" s="59"/>
+      <c r="K43" s="63">
+        <v>1</v>
+      </c>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="73"/>
+      <c r="X43" s="49"/>
       <c r="Y43" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="B44" s="8">
-        <v>5</v>
-      </c>
-      <c r="C44" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="103"/>
+        <v>7</v>
+      </c>
+      <c r="C44" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="115"/>
       <c r="E44" s="17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19" t="s">
@@ -3896,77 +3919,85 @@
       <c r="I44" s="42">
         <v>44020</v>
       </c>
-      <c r="J44" s="67">
-        <f t="shared" si="2"/>
+      <c r="J44" s="66">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K44" s="63">
         <v>1</v>
       </c>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="74"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="73"/>
     </row>
     <row r="45" spans="1:25">
       <c r="B45" s="8">
-        <v>6</v>
-      </c>
-      <c r="C45" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="103"/>
+        <v>8</v>
+      </c>
+      <c r="C45" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="115"/>
       <c r="E45" s="17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H45" s="21">
-        <v>44018</v>
+        <v>44021</v>
       </c>
       <c r="I45" s="42">
-        <v>44018</v>
-      </c>
-      <c r="J45" s="67">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K45" s="64">
-        <v>1</v>
-      </c>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="74"/>
-      <c r="X45" s="49"/>
+        <v>44026</v>
+      </c>
+      <c r="J45" s="66">
+        <f>SUM(K45:U45)*100</f>
+        <v>90.000000000000014</v>
+      </c>
+      <c r="K45" s="74"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="N45" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="O45" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="S45" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="73"/>
+      <c r="X45" s="50"/>
       <c r="Y45" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="B46" s="8">
-        <v>7</v>
-      </c>
-      <c r="C46" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="103"/>
+        <v>9</v>
+      </c>
+      <c r="C46" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="115"/>
       <c r="E46" s="17" t="s">
         <v>41</v>
       </c>
@@ -3974,41 +4005,47 @@
       <c r="G46" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="21">
-        <v>44018</v>
+      <c r="H46" s="42">
+        <v>44022</v>
       </c>
       <c r="I46" s="42">
-        <v>44020</v>
-      </c>
-      <c r="J46" s="67">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K46" s="64">
-        <v>1</v>
-      </c>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="74"/>
+        <v>44026</v>
+      </c>
+      <c r="J46" s="66">
+        <f t="shared" ref="J46:J59" si="1">SUM(K46:U46)*100</f>
+        <v>90</v>
+      </c>
+      <c r="K46" s="74"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="O46" s="45">
+        <v>0</v>
+      </c>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="S46" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="T46" s="71"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="73"/>
     </row>
     <row r="47" spans="1:25">
       <c r="B47" s="8">
-        <v>8</v>
-      </c>
-      <c r="C47" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="103"/>
+        <v>10</v>
+      </c>
+      <c r="C47" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="115"/>
       <c r="E47" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19" t="s">
@@ -4018,94 +4055,94 @@
         <v>44021</v>
       </c>
       <c r="I47" s="42">
-        <v>44026</v>
-      </c>
-      <c r="J47" s="67">
-        <f>SUM(K47:U47)*100</f>
-        <v>60.000000000000007</v>
-      </c>
-      <c r="K47" s="75"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="55">
+        <v>44022</v>
+      </c>
+      <c r="J47" s="66">
+        <f t="shared" si="1"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="K47" s="74"/>
+      <c r="L47" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="M47" s="62">
         <v>0.2</v>
       </c>
-      <c r="N47" s="55">
+      <c r="N47" s="62">
         <v>0.1</v>
       </c>
-      <c r="O47" s="45">
+      <c r="O47" s="64">
         <v>0.1</v>
       </c>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="74"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" t="s">
-        <v>58</v>
-      </c>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="64">
+        <v>0</v>
+      </c>
+      <c r="S47" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="T47" s="71"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="73"/>
     </row>
     <row r="48" spans="1:25">
       <c r="B48" s="8">
-        <v>9</v>
-      </c>
-      <c r="C48" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="103"/>
+        <v>11</v>
+      </c>
+      <c r="C48" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="121"/>
       <c r="E48" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="H48" s="42">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="I48" s="42">
         <v>44026</v>
       </c>
-      <c r="J48" s="67">
-        <f t="shared" ref="J48:J59" si="3">SUM(K48:U48)*100</f>
-        <v>40</v>
-      </c>
-      <c r="K48" s="75"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="O48" s="45">
-        <v>0</v>
-      </c>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="45">
+      <c r="J48" s="66">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K48" s="74"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="O48" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="99">
         <v>0.3</v>
       </c>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="74"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="75"/>
+      <c r="V48" s="76"/>
     </row>
     <row r="49" spans="2:22">
       <c r="B49" s="8">
-        <v>10</v>
-      </c>
-      <c r="C49" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="119"/>
+      <c r="E49" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26" t="s">
         <v>46</v>
       </c>
       <c r="H49" s="21">
@@ -4114,45 +4151,41 @@
       <c r="I49" s="42">
         <v>44022</v>
       </c>
-      <c r="J49" s="67">
-        <f t="shared" si="3"/>
-        <v>89.999999999999986</v>
-      </c>
-      <c r="K49" s="75"/>
-      <c r="L49" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="M49" s="55">
+      <c r="J49" s="66">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K49" s="74"/>
+      <c r="L49" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="M49" s="62">
         <v>0.2</v>
       </c>
-      <c r="N49" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="O49" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="45">
-        <v>0</v>
-      </c>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="74"/>
+      <c r="N49" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="O49" s="67"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="75"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="75"/>
+      <c r="V49" s="76"/>
     </row>
     <row r="50" spans="2:22">
       <c r="B50" s="8">
-        <v>11</v>
-      </c>
-      <c r="C50" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="109"/>
-      <c r="E50" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="C50" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="121"/>
+      <c r="E50" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="25"/>
       <c r="G50" s="26" t="s">
         <v>46</v>
       </c>
@@ -4162,477 +4195,475 @@
       <c r="I50" s="42">
         <v>44026</v>
       </c>
-      <c r="J50" s="67">
-        <f t="shared" si="3"/>
+      <c r="J50" s="66">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K50" s="75"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="100">
+      <c r="K50" s="74"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="62">
         <v>0.5</v>
       </c>
-      <c r="O50" s="65">
+      <c r="N50" s="62">
+        <v>0.3</v>
+      </c>
+      <c r="O50" s="64">
         <v>0.2</v>
       </c>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="100">
-        <v>0.3</v>
-      </c>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
-      <c r="V50" s="77"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="75"/>
+      <c r="T50" s="75"/>
+      <c r="U50" s="75"/>
+      <c r="V50" s="76"/>
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="8">
-        <v>12</v>
-      </c>
-      <c r="C51" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C51" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="115"/>
+      <c r="E51" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="H51" s="21">
         <v>44021</v>
       </c>
       <c r="I51" s="42">
-        <v>44022</v>
-      </c>
-      <c r="J51" s="67">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="K51" s="75"/>
-      <c r="L51" s="63">
+        <v>44026</v>
+      </c>
+      <c r="J51" s="66">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K51" s="74"/>
+      <c r="L51" s="56">
         <v>0.6</v>
       </c>
-      <c r="M51" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="N51" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="O51" s="68"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="76"/>
-      <c r="S51" s="76"/>
-      <c r="T51" s="76"/>
-      <c r="U51" s="76"/>
-      <c r="V51" s="77"/>
+      <c r="M51" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="N51" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="O51" s="56">
+        <v>0</v>
+      </c>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="100">
+        <v>0.05</v>
+      </c>
+      <c r="S51" s="100">
+        <v>0.1</v>
+      </c>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="73"/>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="8">
-        <v>13</v>
-      </c>
-      <c r="C52" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="109"/>
-      <c r="E52" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="C52" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="115"/>
+      <c r="E52" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="H52" s="42">
         <v>44025</v>
       </c>
       <c r="I52" s="42">
-        <v>44026</v>
-      </c>
-      <c r="J52" s="67">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="K52" s="75"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="N52" s="63">
+        <v>44028</v>
+      </c>
+      <c r="J52" s="66">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K52" s="74"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="45">
         <v>0.3</v>
       </c>
-      <c r="O52" s="65">
-        <v>0.2</v>
-      </c>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="77"/>
+      <c r="O52" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="S52" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="73"/>
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="8">
-        <v>14</v>
-      </c>
-      <c r="C53" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="103"/>
+        <v>16</v>
+      </c>
+      <c r="C53" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="115"/>
       <c r="E53" s="19" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="21">
-        <v>44021</v>
+      <c r="H53" s="42">
+        <v>44025</v>
       </c>
       <c r="I53" s="42">
-        <v>44026</v>
-      </c>
-      <c r="J53" s="67">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="K53" s="75"/>
-      <c r="L53" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="M53" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="N53" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="O53" s="56">
-        <v>0</v>
-      </c>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="101">
-        <v>0.05</v>
-      </c>
-      <c r="S53" s="68"/>
-      <c r="T53" s="68"/>
-      <c r="U53" s="68"/>
-      <c r="V53" s="74"/>
+        <v>44028</v>
+      </c>
+      <c r="J53" s="66">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K53" s="74"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="S53" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="T53" s="67"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="73"/>
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="8">
-        <v>15</v>
-      </c>
-      <c r="C54" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="103"/>
+        <v>17</v>
+      </c>
+      <c r="C54" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="115"/>
       <c r="E54" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="42">
-        <v>44025</v>
+        <v>46</v>
+      </c>
+      <c r="H54" s="48">
+        <v>44021</v>
       </c>
       <c r="I54" s="42">
-        <v>44028</v>
-      </c>
-      <c r="J54" s="67">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="K54" s="75"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="45">
-        <v>0.3</v>
-      </c>
-      <c r="O54" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="74"/>
+        <v>44022</v>
+      </c>
+      <c r="J54" s="66">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K54" s="74"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="64">
+        <v>1</v>
+      </c>
+      <c r="O54" s="71"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="98"/>
+      <c r="V54" s="73"/>
     </row>
     <row r="55" spans="2:22">
       <c r="B55" s="8">
-        <v>16</v>
-      </c>
-      <c r="C55" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="103"/>
+        <v>18</v>
+      </c>
+      <c r="C55" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="121"/>
       <c r="E55" s="19" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" s="42">
-        <v>44025</v>
+        <v>29</v>
+      </c>
+      <c r="H55" s="48">
+        <v>44022</v>
       </c>
       <c r="I55" s="42">
-        <v>44028</v>
-      </c>
-      <c r="J55" s="67">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K55" s="75"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="45">
-        <v>0.3</v>
-      </c>
-      <c r="S55" s="68"/>
-      <c r="T55" s="68"/>
-      <c r="U55" s="99"/>
-      <c r="V55" s="74"/>
+        <v>44022</v>
+      </c>
+      <c r="J55" s="66">
+        <v>100</v>
+      </c>
+      <c r="K55" s="74"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="64">
+        <v>1</v>
+      </c>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="98"/>
+      <c r="V55" s="73"/>
     </row>
     <row r="56" spans="2:22">
       <c r="B56" s="8">
-        <v>17</v>
-      </c>
-      <c r="C56" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="103"/>
+        <v>19</v>
+      </c>
+      <c r="C56" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="115"/>
       <c r="E56" s="19" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H56" s="48">
-        <v>44021</v>
-      </c>
-      <c r="I56" s="42">
-        <v>44022</v>
-      </c>
-      <c r="J56" s="67">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="K56" s="75"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="65">
-        <v>1</v>
-      </c>
-      <c r="O56" s="72"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="99"/>
-      <c r="V56" s="74"/>
+        <v>44027</v>
+      </c>
+      <c r="I56" s="48">
+        <v>44028</v>
+      </c>
+      <c r="J56" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="74"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="98"/>
+      <c r="V56" s="73"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="8">
-        <v>18</v>
-      </c>
-      <c r="C57" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="115"/>
+      <c r="E57" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="19" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H57" s="48">
-        <v>44022</v>
-      </c>
-      <c r="I57" s="42">
-        <v>44022</v>
-      </c>
-      <c r="J57" s="67">
+        <v>44025</v>
+      </c>
+      <c r="I57" s="48">
+        <v>44026</v>
+      </c>
+      <c r="J57" s="66">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K57" s="75"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="65">
+      <c r="K57" s="74"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="99">
         <v>1</v>
       </c>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="99"/>
-      <c r="V57" s="74"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="73"/>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="8">
-        <v>19</v>
-      </c>
-      <c r="C58" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="19" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="C58" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="121"/>
+      <c r="E58" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H58" s="48">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="I58" s="48">
-        <v>44028</v>
-      </c>
-      <c r="J58" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="75"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="72"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="99"/>
-      <c r="V58" s="74"/>
+        <v>44026</v>
+      </c>
+      <c r="J58" s="66">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K58" s="74"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="73"/>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="8">
-        <v>20</v>
-      </c>
-      <c r="C59" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="103"/>
+        <v>22</v>
+      </c>
+      <c r="C59" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="115"/>
       <c r="E59" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H59" s="48">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="I59" s="48">
-        <v>44028</v>
-      </c>
-      <c r="J59" s="67">
-        <f t="shared" si="3"/>
+        <v>44026</v>
+      </c>
+      <c r="J59" s="66">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K59" s="75"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="100">
+      <c r="K59" s="74"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="99">
         <v>1</v>
       </c>
-      <c r="S59" s="72"/>
-      <c r="T59" s="72"/>
-      <c r="U59" s="72"/>
-      <c r="V59" s="74"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="73"/>
     </row>
     <row r="60" spans="2:22">
       <c r="B60" s="8"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="103"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="19"/>
       <c r="H60" s="8"/>
       <c r="I60" s="39"/>
       <c r="J60" s="39"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="72"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="72"/>
-      <c r="U60" s="72"/>
-      <c r="V60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="73"/>
     </row>
     <row r="61" spans="2:22" ht="19.5" thickBot="1">
       <c r="B61" s="9"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="105"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="127"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="38"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="43"/>
+      <c r="I61" s="101"/>
       <c r="J61" s="57"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="79"/>
-      <c r="S61" s="79"/>
-      <c r="T61" s="79"/>
-      <c r="U61" s="79"/>
-      <c r="V61" s="81"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="79"/>
+      <c r="Q61" s="79"/>
+      <c r="R61" s="78"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="78"/>
+      <c r="U61" s="78"/>
+      <c r="V61" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C22:D22"/>
@@ -4642,7 +4673,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C25:D25"/>
@@ -4656,6 +4686,7 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4679,147 +4710,147 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="116"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="116"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="116"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="116"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="128" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="116" t="s">
+      <c r="B25" s="128"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="116"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="116"/>
+      <c r="B26" s="128"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="116"/>
+      <c r="B27" s="128"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="128"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="116"/>
+      <c r="B29" s="128"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="116"/>
+      <c r="B30" s="128"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="52"/>
@@ -4827,37 +4858,37 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4897,137 +4928,137 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="23">
         <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="116"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="23">
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="116"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="116"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="116"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="23">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="23"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="128" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="116" t="s">
+      <c r="B25" s="128"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="116"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="116"/>
+      <c r="B26" s="128"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="116"/>
+      <c r="B27" s="128"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="128"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="116"/>
+      <c r="B29" s="128"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="52"/>
@@ -5035,37 +5066,37 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5105,83 +5136,83 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="130"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="131"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="118"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="119"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="131"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="117"/>
+        <v>65</v>
+      </c>
+      <c r="E14" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="129"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="E15" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="117"/>
+      <c r="E15" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
-      <c r="E16" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="117"/>
+      <c r="E16" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="129"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
-      <c r="E17" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="117"/>
+      <c r="E17" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="47" t="s">
@@ -5189,32 +5220,32 @@
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
-      <c r="E18" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="117"/>
+      <c r="E18" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="129"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
-      <c r="E19" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="117"/>
+      <c r="E19" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="129"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
-      <c r="E20" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="117"/>
+      <c r="E20" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="129"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="47" t="s">
@@ -5222,14 +5253,14 @@
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
-      <c r="E21" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="117"/>
+      <c r="E21" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="129"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5239,7 +5270,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5249,12 +5280,12 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5267,47 +5298,47 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5343,47 +5374,47 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="117"/>
+        <v>65</v>
+      </c>
+      <c r="E14" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="129"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -5393,18 +5424,18 @@
         <v>0.3</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="51">
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5415,7 +5446,7 @@
         <v>0.8</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5426,7 +5457,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5434,7 +5465,7 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5442,7 +5473,7 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5450,7 +5481,7 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5458,7 +5489,7 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5466,12 +5497,12 @@
         <v>54</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5481,7 +5512,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5491,7 +5522,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5511,32 +5542,32 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5564,264 +5595,264 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="140"/>
+      <c r="A11" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="152"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A12" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="142"/>
+      <c r="A12" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="154"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickBot="1"/>
     <row r="14" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A14" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="85" t="s">
-        <v>82</v>
+      <c r="A14" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="84" t="s">
+        <v>81</v>
       </c>
       <c r="E14" s="29"/>
-      <c r="F14" s="82"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="86">
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="85">
         <v>0.4</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="82"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="85">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="83"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="130" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="86">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="90" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="85">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="142" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="143"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="85">
+        <v>0.7</v>
+      </c>
+      <c r="E18" s="91" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="86">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="130" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="86">
-        <v>0.7</v>
-      </c>
-      <c r="E18" s="92" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="85">
+        <v>1.2</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="87"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="85">
+        <v>1</v>
+      </c>
+      <c r="E20" s="90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="85">
+        <v>0.75</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A22" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="146"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="86">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="92" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="130" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="86">
-        <v>1.2</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="86">
-        <v>1</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="86">
-        <v>0.75</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A22" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="87">
-        <v>0.4</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" thickBot="1"/>
     <row r="24" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A24" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
+      <c r="A24" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="149"/>
+      <c r="C24" s="150"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="130" t="s">
+      <c r="A26" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="132"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="126"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="141"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="66" t="s">
-        <v>70</v>
+      <c r="A34" s="65" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
+      <c r="A35" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="83" t="s">
-        <v>72</v>
+      <c r="A37" s="82" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="93" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="94" t="s">
-        <v>124</v>
-      </c>
-    </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="83" t="s">
-        <v>74</v>
+      <c r="A41" s="82" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
+      <c r="A42" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5855,245 +5886,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E81DDBC-CDAF-4778-A81C-0F12E9B43FF7}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="149"/>
-    <col min="2" max="2" width="9" style="149" customWidth="1"/>
-    <col min="3" max="4" width="9" style="149"/>
-    <col min="5" max="5" width="9.5" style="149" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="149"/>
+    <col min="1" max="1" width="9" style="103"/>
+    <col min="2" max="2" width="9" style="103" customWidth="1"/>
+    <col min="3" max="4" width="9" style="103"/>
+    <col min="5" max="5" width="9.5" style="103" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="149" t="s">
-        <v>59</v>
+      <c r="A1" s="103" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="149" t="s">
-        <v>128</v>
+      <c r="A2" s="103" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="103" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="149" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="103" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="149" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="151"/>
+      <c r="A11" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="164"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A12" s="152" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="153"/>
+      <c r="A12" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="166"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickBot="1"/>
     <row r="14" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A14" s="154" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="155"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
+      <c r="A14" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163">
+      <c r="B15" s="171"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="107">
         <v>0.6</v>
       </c>
-      <c r="E15" s="184" t="s">
+      <c r="E15" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="160" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="107">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="107">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="160" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="107">
+        <v>1</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="160" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="107">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="163">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="184" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="163">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="184" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="164" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="163">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="185" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="186"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="107">
         <v>1</v>
       </c>
-      <c r="E18" s="185" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="164" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="163">
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="186" t="s">
+      <c r="E20" s="111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="112" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="167" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="163">
-        <v>1</v>
-      </c>
-      <c r="E20" s="185" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="164" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="165"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="163">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="186" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="22" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A22" s="170" t="s">
+      <c r="A22" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="171"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173">
+      <c r="B22" s="177"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="108">
         <v>0.3</v>
       </c>
-      <c r="E22" s="187" t="s">
-        <v>131</v>
+      <c r="E22" s="113" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.5" thickBot="1"/>
     <row r="24" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A24" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
+      <c r="A24" s="179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="177" t="s">
+      <c r="A25" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="178"/>
-      <c r="C25" s="179"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="184"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="165"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="162"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="164" t="s">
+      <c r="A27" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="180" t="s">
+      <c r="A28" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="181"/>
-      <c r="C28" s="182"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="175"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="182"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="171"/>
-      <c r="C30" s="172"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="178"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="183" t="s">
-        <v>70</v>
+      <c r="A33" s="109" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="159" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
+      <c r="A34" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6101,19 +6132,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="159"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="18">
